--- a/test.xlsx
+++ b/test.xlsx
@@ -1503,7 +1503,7 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
